--- a/files/DomainWhoIs.xlsx
+++ b/files/DomainWhoIs.xlsx
@@ -5,16 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolga\Documents\UiPath\DomainWhoIs\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB92B63-53EA-4C11-8090-10EC828A9A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FE102F-C8BC-4E5A-8C4F-437691C6753A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DomainName" sheetId="1" r:id="rId1"/>
-    <sheet name="DomainDates" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,54 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DomainName</t>
-  </si>
-  <si>
-    <t>google.com</t>
-  </si>
-  <si>
-    <t>rpahaber.com</t>
-  </si>
-  <si>
-    <t>iletimteknik.com</t>
   </si>
   <si>
     <t>tekohaber.com</t>
   </si>
   <si>
-    <t>teknodiot.com</t>
+    <t>rpaturkiye.com</t>
   </si>
   <si>
     <t>sogutmagrububakimi.com</t>
-  </si>
-  <si>
-    <t>tolgademir.com</t>
-  </si>
-  <si>
-    <t>google.net</t>
-  </si>
-  <si>
-    <t>rpaturkiye.com</t>
-  </si>
-  <si>
-    <t>rpaogreniyorum.com</t>
-  </si>
-  <si>
-    <t>ahmet.net</t>
-  </si>
-  <si>
-    <t>RegisterDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>RemainingDay</t>
-  </si>
-  <si>
-    <t>DomainAge</t>
   </si>
 </sst>
 </file>
@@ -122,12 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -413,18 +373,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="30" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -433,113 +393,21 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30E9E30-59C0-4B3D-8056-A62C0B9A2BB5}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="A2:E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="16.28515625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-    </row>
+    <row r="7" spans="1:1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
